--- a/Schedule Calculator Pro/bin/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE34FE84-96B3-4A32-BB81-0B5331A96136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0221C8-DCB5-4842-AF8D-B59D1C92AF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8E7616D8-F236-413C-9F74-CEF24E7A798E}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{FFA5577F-5F9B-457A-832A-D158C15BD683}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="69">
   <si>
     <t>Понеділок</t>
   </si>
@@ -57,93 +57,93 @@
     <t>Лісіцька Н.В.</t>
   </si>
   <si>
+    <t>Маланюк Н.П.</t>
+  </si>
+  <si>
+    <t>Міщанчук Н.О.</t>
+  </si>
+  <si>
+    <t>Остапчук В.В.</t>
+  </si>
+  <si>
+    <t>Петрова А.А.</t>
+  </si>
+  <si>
+    <t>Подлєсна К.А.</t>
+  </si>
+  <si>
+    <t>Приймак С.Л.</t>
+  </si>
+  <si>
+    <t>Пузіна О.С.</t>
+  </si>
+  <si>
+    <t>Рассохін О.О.</t>
+  </si>
+  <si>
+    <t>Римар Т.В.</t>
+  </si>
+  <si>
+    <t>Романішин В.В.</t>
+  </si>
+  <si>
+    <t>Рудик В.В.</t>
+  </si>
+  <si>
+    <t>Семенюк Л.М.</t>
+  </si>
+  <si>
+    <t>Сербин Г.Л.</t>
+  </si>
+  <si>
+    <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
+    <t>Ставничий А.М.</t>
+  </si>
+  <si>
+    <t>Трач О.С.</t>
+  </si>
+  <si>
+    <t>Трифонова І.В.</t>
+  </si>
+  <si>
+    <t>Фуріхата Д.В.</t>
+  </si>
+  <si>
+    <t>Халіф О.Р.</t>
+  </si>
+  <si>
+    <t>Хливнюк М.Г.</t>
+  </si>
+  <si>
+    <t>Чижмотря О.Г.</t>
+  </si>
+  <si>
+    <t>Шевчик О.А.</t>
+  </si>
+  <si>
+    <t>Шуляр Т.М.</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
+  </si>
+  <si>
+    <t>Друга пара</t>
+  </si>
+  <si>
+    <t>Білогор Л.А.</t>
+  </si>
+  <si>
+    <t>Камінська Л.Л.</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
     <t>Максименко М.О.</t>
   </si>
   <si>
-    <t>Маланюк Н.П.</t>
-  </si>
-  <si>
-    <t>Міщанчук Н.О.</t>
-  </si>
-  <si>
-    <t>Остапчук В.В.</t>
-  </si>
-  <si>
-    <t>Петрова А.А.</t>
-  </si>
-  <si>
-    <t>Подлєсна К.А.</t>
-  </si>
-  <si>
-    <t>Приймак С.Л.</t>
-  </si>
-  <si>
-    <t>Пузіна О.С.</t>
-  </si>
-  <si>
-    <t>Рассохін О.О.</t>
-  </si>
-  <si>
-    <t>Римар Т.В.</t>
-  </si>
-  <si>
-    <t>Романішин В.В.</t>
-  </si>
-  <si>
-    <t>Рудик В.В.</t>
-  </si>
-  <si>
-    <t>Семенюк Л.М.</t>
-  </si>
-  <si>
-    <t>Сербин Г.Л.</t>
-  </si>
-  <si>
-    <t>Сорочиньска О.В.</t>
-  </si>
-  <si>
-    <t>Ставничий А.М.</t>
-  </si>
-  <si>
-    <t>Трач О.С.</t>
-  </si>
-  <si>
-    <t>Трифонова І.В.</t>
-  </si>
-  <si>
-    <t>Фуріхата Д.В.</t>
-  </si>
-  <si>
-    <t>Халіф О.Р.</t>
-  </si>
-  <si>
-    <t>Хливнюк М.Г.</t>
-  </si>
-  <si>
-    <t>Чижмотря О.Г.</t>
-  </si>
-  <si>
-    <t>Шевчик О.А.</t>
-  </si>
-  <si>
-    <t>Шуляр Т.М.</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t>Друга пара</t>
-  </si>
-  <si>
-    <t>Білогор Л.А.</t>
-  </si>
-  <si>
-    <t>Камінська Л.Л.</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
     <t>Паночишена А.В.</t>
   </si>
   <si>
@@ -159,76 +159,76 @@
     <t>Зелінська О.А.</t>
   </si>
   <si>
+    <t>Міщенко В.А.</t>
+  </si>
+  <si>
+    <t>Четверта пара</t>
+  </si>
+  <si>
+    <t>Бенедицький В.Б.</t>
+  </si>
+  <si>
+    <t>Буханевич М.Й.</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Заболотний М.В.</t>
+  </si>
+  <si>
+    <t>Козак Н.М.</t>
+  </si>
+  <si>
+    <t>Конишев В.С.</t>
+  </si>
+  <si>
+    <t>П'ята пара</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
+    <t>Бондаренко О.П.</t>
+  </si>
+  <si>
+    <t>Варганова Д.О.</t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
+    <t>Гордійчук О.М.</t>
+  </si>
+  <si>
+    <t>Данильченко А.О.</t>
+  </si>
+  <si>
+    <t>Дишлева Т.І.</t>
+  </si>
+  <si>
+    <t>Журавська К.О.</t>
+  </si>
+  <si>
+    <t>Камінська М.Б.</t>
+  </si>
+  <si>
+    <t>Кочин І.В.</t>
+  </si>
+  <si>
     <t>Опанащук Ю.М.</t>
   </si>
   <si>
-    <t>Четверта пара</t>
-  </si>
-  <si>
-    <t>Бенедицький В.Б.</t>
-  </si>
-  <si>
-    <t>Буханевич М.Й.</t>
-  </si>
-  <si>
-    <t>Заболотний М.В.</t>
-  </si>
-  <si>
-    <t>Камінська М.Б.</t>
-  </si>
-  <si>
-    <t>Козак Н.М.</t>
-  </si>
-  <si>
-    <t>Конишев В.С.</t>
-  </si>
-  <si>
-    <t>П'ята пара</t>
+    <t>Шоста пара</t>
+  </si>
+  <si>
+    <t>Вівторок</t>
   </si>
   <si>
     <t>Антонова Л.І.</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
-    <t>Бондаренко О.П.</t>
-  </si>
-  <si>
-    <t>Варганова Д.О.</t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
-  </si>
-  <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
-    <t>Гордійчук О.М.</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Данильченко А.О.</t>
-  </si>
-  <si>
-    <t>Дишлева Т.І.</t>
-  </si>
-  <si>
-    <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t>Кочин І.В.</t>
-  </si>
-  <si>
-    <t>Міщенко В.А.</t>
-  </si>
-  <si>
-    <t>Шоста пара</t>
-  </si>
-  <si>
-    <t>Вівторок</t>
   </si>
   <si>
     <t>Середа</t>
@@ -786,8 +786,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5727A-CFD1-44DD-BDDE-A45B881ADDDC}">
-  <dimension ref="A1:F300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08869F0C-1F26-471E-B2DF-6E215D0099F0}">
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,8 +810,8 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
@@ -823,54 +823,54 @@
         <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -880,24 +880,24 @@
         <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>52</v>
@@ -910,54 +910,54 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>54</v>
@@ -970,14 +970,14 @@
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>55</v>
@@ -990,14 +990,14 @@
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>56</v>
@@ -1010,7 +1010,7 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1020,38 +1020,38 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>37</v>
@@ -1060,198 +1060,198 @@
         <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>24</v>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>23</v>
@@ -1260,18 +1260,18 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>24</v>
@@ -1280,18 +1280,18 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -1300,18 +1300,18 @@
         <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>26</v>
@@ -1320,38 +1320,38 @@
         <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>28</v>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>29</v>
+      <c r="B29" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>28</v>
@@ -1360,18 +1360,18 @@
         <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>30</v>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>29</v>
@@ -1380,18 +1380,18 @@
         <v>19</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>31</v>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>30</v>
@@ -1400,39 +1400,33 @@
         <v>20</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
         <v>23</v>
       </c>
@@ -1454,62 +1448,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
         <v>30</v>
       </c>
@@ -1531,8 +1525,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="8" t="s">
+    <row r="42" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -1542,10 +1536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
@@ -1553,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E45" s="5" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E48" s="5" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59" s="5" t="s">
         <v>31</v>
       </c>
@@ -1682,1047 +1673,1047 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="5" t="s">
+      <c r="A60" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="C61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="E62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="D63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B65" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="C66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>35</v>
+      <c r="A67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="E68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>3</v>
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>54</v>
+      <c r="E69" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>48</v>
+      <c r="A70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>55</v>
+      <c r="E70" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>56</v>
+      <c r="E71" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>4</v>
+      <c r="A72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>57</v>
+      <c r="D72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>6</v>
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>58</v>
+      <c r="D73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>39</v>
+      <c r="D74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F76" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>12</v>
+      <c r="A77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>40</v>
+      <c r="D77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>13</v>
+      <c r="B78" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F86" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E88" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F88" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="8" t="s">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="E91" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F91" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" s="8" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>8</v>
+      <c r="E93" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>9</v>
+      <c r="D94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="D95" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="E96" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F96" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="5" t="s">
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>12</v>
+      <c r="E100" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>13</v>
+      <c r="E101" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>14</v>
+      <c r="E102" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>15</v>
+      <c r="E103" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>16</v>
+      <c r="E104" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>17</v>
+      <c r="E105" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>18</v>
+      <c r="E106" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>19</v>
+      <c r="E107" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>20</v>
+      <c r="E108" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>21</v>
+      <c r="E109" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>22</v>
+      <c r="E110" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>23</v>
+      <c r="E111" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>24</v>
+      <c r="E112" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>25</v>
+      <c r="E113" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>26</v>
+      <c r="E114" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>27</v>
+      <c r="E115" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>28</v>
+      <c r="E116" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>29</v>
+      <c r="E117" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D118" s="8" t="s">
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>30</v>
+      <c r="E118" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F119" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E120" s="5" t="s">
+      <c r="A120" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="C121" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="B123" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="C124" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="D124" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E124" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>54</v>
+      <c r="A125" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>58</v>
+      <c r="A126" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>53</v>
@@ -2731,24 +2722,24 @@
         <v>45</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="C127" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>53</v>
@@ -2761,572 +2752,560 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>59</v>
+      <c r="A128" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C130" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>35</v>
+      <c r="A131" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D132" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="F132" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F133" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="5" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>9</v>
+      <c r="A139" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>10</v>
+      <c r="A140" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="F142" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="8" t="s">
+      <c r="C143" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="F143" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="E144" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="F144" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F145" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>24</v>
+      <c r="A146" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>25</v>
+      <c r="A147" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="8" t="s">
+      <c r="D148" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="F149" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="B151" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D152" s="8" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="B153" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>11</v>
@@ -3337,232 +3316,250 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D164" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D165" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="E165" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E166" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E167" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E168" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E169" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E170" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E171" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E172" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E173" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E174" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E175" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E176" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E177" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E178" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E179" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F179" s="5" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E180" s="5" t="s">
+      <c r="A180" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="13"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="7" t="s">
+      <c r="C180" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>64</v>
+      <c r="B182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,84 +3576,84 @@
         <v>51</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>53</v>
@@ -3667,62 +3664,62 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,33 +3733,33 @@
         <v>58</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -3779,210 +3776,210 @@
         <v>58</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="F195" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E196" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B199" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E199" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E200" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E201" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,16 +3990,16 @@
         <v>8</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4013,237 +4010,225 @@
         <v>9</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B212" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C212" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="C213" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D213" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E213" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F213" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C216" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>11</v>
@@ -4254,256 +4239,271 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E219" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F219" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E220" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F220" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E221" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F221" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D225" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D226" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E224" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F224" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D225" s="8" t="s">
+      <c r="F226" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D227" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E227" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E225" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D226" s="8" t="s">
+      <c r="F227" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D228" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E226" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D227" s="8" t="s">
+      <c r="F228" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D229" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D230" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E227" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D228" s="8" t="s">
+      <c r="F231" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E232" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E228" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D229" s="8" t="s">
+      <c r="F232" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E233" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E229" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D230" s="8" t="s">
+      <c r="F233" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E234" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E230" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D231" s="8" t="s">
+      <c r="F234" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E235" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E231" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D232" s="8" t="s">
+      <c r="F235" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E236" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E232" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D233" s="8" t="s">
+      <c r="F236" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E237" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E238" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E233" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="234" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="9" t="s">
+      <c r="F238" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="13"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E234" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E235" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E236" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E237" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E238" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E239" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F239" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="240" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E240" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="13"/>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B242" s="7" t="s">
+      <c r="C240" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>64</v>
+      <c r="B242" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,84 +4517,84 @@
         <v>51</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>53</v>
@@ -4608,62 +4608,62 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -4674,16 +4674,16 @@
         <v>57</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,33 +4697,33 @@
         <v>57</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -4734,316 +4734,316 @@
         <v>59</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C257" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D257" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D260" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="D261" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C262" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B262" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D262" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B263" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="C263" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B268" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C268" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C268" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="D268" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5057,164 +5057,161 @@
         <v>36</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B273" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="C273" s="8" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="B278" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>11</v>
@@ -5227,290 +5224,256 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="s">
+      <c r="B279" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B279" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C279" s="8" t="s">
+      <c r="C280" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D280" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D279" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="9" t="s">
+      <c r="E280" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B280" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C280" s="8" t="s">
+      <c r="C281" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D280" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B281" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C281" s="8" t="s">
+      <c r="E281" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C282" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D281" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F281" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C283" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E283" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D284" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D287" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D288" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D298" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E298" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D299" s="5" t="s">
+    </row>
+    <row r="298" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D298" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E299" s="5" t="s">
+      <c r="E298" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F298" s="6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="300" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E300" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F300" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A239:F239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
